--- a/state_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
+++ b/state_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64680443769192</v>
+        <v>2.48755938970283</v>
       </c>
       <c r="H2" t="n">
-        <v>13.0627234742649</v>
+        <v>8.18904478826977</v>
       </c>
       <c r="I2" t="n">
         <v>7.67</v>
@@ -584,10 +584,10 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>4.44</v>
+        <v>4.38926</v>
       </c>
       <c r="N2" t="n">
-        <v>6.41313</v>
+        <v>6.70213</v>
       </c>
       <c r="O2" t="n">
         <v>1854499</v>
@@ -1153,7 +1153,7 @@
         <v>0.00459</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0101356069123714</v>
+        <v>0.0101402796480511</v>
       </c>
       <c r="H9" t="n">
         <v>0.0928949575050536</v>
@@ -1234,7 +1234,7 @@
         <v>0.00459</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0101356069123714</v>
+        <v>0.0101402796480511</v>
       </c>
       <c r="H10" t="n">
         <v>0.0928949575050536</v>
@@ -1315,7 +1315,7 @@
         <v>0.35</v>
       </c>
       <c r="G11" t="n">
-        <v>0.480769387631646</v>
+        <v>0.480796692066895</v>
       </c>
       <c r="H11" t="n">
         <v>1.88</v>
@@ -1396,7 +1396,7 @@
         <v>0.35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.480769387631646</v>
+        <v>0.480796692066895</v>
       </c>
       <c r="H12" t="n">
         <v>1.88</v>
@@ -1473,7 +1473,7 @@
         <v>0.448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.498818181818182</v>
+        <v>0.49880303030303</v>
       </c>
       <c r="H13" t="n">
         <v>1.9</v>
@@ -1484,13 +1484,13 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.1195</v>
+        <v>0.11975</v>
       </c>
       <c r="M13" t="n">
         <v>0.88146</v>
       </c>
       <c r="N13" t="n">
-        <v>1.12996</v>
+        <v>1.12989</v>
       </c>
       <c r="O13" t="n">
         <v>1854499</v>
@@ -1550,7 +1550,7 @@
         <v>0.448</v>
       </c>
       <c r="G14" t="n">
-        <v>0.498818181818182</v>
+        <v>0.49880303030303</v>
       </c>
       <c r="H14" t="n">
         <v>1.9</v>
@@ -1561,13 +1561,13 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.1195</v>
+        <v>0.11975</v>
       </c>
       <c r="M14" t="n">
         <v>0.88146</v>
       </c>
       <c r="N14" t="n">
-        <v>1.12996</v>
+        <v>1.12989</v>
       </c>
       <c r="O14" t="n">
         <v>1854499</v>
@@ -1939,13 +1939,13 @@
         <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.92746482762879</v>
+        <v>1.93057215815533</v>
       </c>
       <c r="H19" t="n">
-        <v>6.27347823502119</v>
+        <v>6.59458793093603</v>
       </c>
       <c r="I19" t="n">
-        <v>5.68803</v>
+        <v>5.47449</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
         <v>2.9</v>
       </c>
       <c r="N19" t="n">
-        <v>3.64396</v>
+        <v>3.63946</v>
       </c>
       <c r="O19" t="n">
         <v>1854499</v>
@@ -2522,7 +2522,7 @@
         <v>0.00678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0142099688005876</v>
+        <v>0.0142109404180831</v>
       </c>
       <c r="H26" t="n">
         <v>0.0928949575050536</v>
@@ -2603,7 +2603,7 @@
         <v>0.00678</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0142099688005876</v>
+        <v>0.0142109404180831</v>
       </c>
       <c r="H27" t="n">
         <v>0.0928949575050536</v>
@@ -2684,7 +2684,7 @@
         <v>0.35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.454678478540736</v>
+        <v>0.454705782975985</v>
       </c>
       <c r="H28" t="n">
         <v>1.51</v>
@@ -2765,7 +2765,7 @@
         <v>0.35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.454678478540736</v>
+        <v>0.454705782975985</v>
       </c>
       <c r="H29" t="n">
         <v>1.51</v>
@@ -2842,7 +2842,7 @@
         <v>0.448</v>
       </c>
       <c r="G30" t="n">
-        <v>0.476636363636364</v>
+        <v>0.476621212121212</v>
       </c>
       <c r="H30" t="n">
         <v>1.565</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.1665</v>
+        <v>0.16625</v>
       </c>
       <c r="M30" t="n">
         <v>0.86482</v>
@@ -2919,7 +2919,7 @@
         <v>0.448</v>
       </c>
       <c r="G31" t="n">
-        <v>0.476636363636364</v>
+        <v>0.476621212121212</v>
       </c>
       <c r="H31" t="n">
         <v>1.565</v>
@@ -2930,7 +2930,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.1665</v>
+        <v>0.16625</v>
       </c>
       <c r="M31" t="n">
         <v>0.86482</v>
@@ -3308,13 +3308,13 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.21863743387192</v>
+        <v>2.22087760239105</v>
       </c>
       <c r="H36" t="n">
-        <v>6.27347823502119</v>
+        <v>6.59458793093603</v>
       </c>
       <c r="I36" t="n">
-        <v>5.80916</v>
+        <v>5.66305</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>3.657</v>
       </c>
       <c r="N36" t="n">
-        <v>4.95388</v>
+        <v>4.94039</v>
       </c>
       <c r="O36" t="n">
         <v>1854499</v>
@@ -3891,7 +3891,7 @@
         <v>0.00574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01146239454206</v>
+        <v>0.0114631070615567</v>
       </c>
       <c r="H43" t="n">
         <v>0.0928949575050536</v>
@@ -3972,7 +3972,7 @@
         <v>0.00574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01146239454206</v>
+        <v>0.0114631070615567</v>
       </c>
       <c r="H44" t="n">
         <v>0.0928949575050536</v>
@@ -4053,7 +4053,7 @@
         <v>0.33</v>
       </c>
       <c r="G45" t="n">
-        <v>0.421855328707651</v>
+        <v>0.421875351960167</v>
       </c>
       <c r="H45" t="n">
         <v>1.51</v>
@@ -4134,7 +4134,7 @@
         <v>0.33</v>
       </c>
       <c r="G46" t="n">
-        <v>0.421855328707651</v>
+        <v>0.421875351960167</v>
       </c>
       <c r="H46" t="n">
         <v>1.51</v>
@@ -4211,7 +4211,7 @@
         <v>0.355</v>
       </c>
       <c r="G47" t="n">
-        <v>0.440777777777778</v>
+        <v>0.440795555555556</v>
       </c>
       <c r="H47" t="n">
         <v>1.565</v>
@@ -4288,7 +4288,7 @@
         <v>0.355</v>
       </c>
       <c r="G48" t="n">
-        <v>0.440777777777778</v>
+        <v>0.440795555555556</v>
       </c>
       <c r="H48" t="n">
         <v>1.565</v>
@@ -4677,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>2.2898348010864</v>
+        <v>2.29168724813106</v>
       </c>
       <c r="H53" t="n">
         <v>7.14</v>
       </c>
       <c r="I53" t="n">
-        <v>5.82679</v>
+        <v>5.80431</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>3.666</v>
       </c>
       <c r="N53" t="n">
-        <v>5.2053</v>
+        <v>5.12887</v>
       </c>
       <c r="O53" t="n">
         <v>1854499</v>
@@ -5260,7 +5260,7 @@
         <v>0.0051</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0095437331720096</v>
+        <v>0.009544295687401699</v>
       </c>
       <c r="H60" t="n">
         <v>0.0928949575050536</v>
@@ -5341,7 +5341,7 @@
         <v>0.0051</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0095437331720096</v>
+        <v>0.009544295687401699</v>
       </c>
       <c r="H61" t="n">
         <v>0.0928949575050536</v>
@@ -5422,7 +5422,7 @@
         <v>0.3087</v>
       </c>
       <c r="G62" t="n">
-        <v>0.392647189330602</v>
+        <v>0.392662997161535</v>
       </c>
       <c r="H62" t="n">
         <v>1.51</v>
@@ -5503,7 +5503,7 @@
         <v>0.3087</v>
       </c>
       <c r="G63" t="n">
-        <v>0.392647189330602</v>
+        <v>0.392662997161535</v>
       </c>
       <c r="H63" t="n">
         <v>1.51</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.321</v>
+        <v>0.3213</v>
       </c>
       <c r="G64" t="n">
-        <v>0.409473684210526</v>
+        <v>0.409470175438596</v>
       </c>
       <c r="H64" t="n">
         <v>1.565</v>
@@ -5591,7 +5591,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0915</v>
+        <v>0.0912</v>
       </c>
       <c r="M64" t="n">
         <v>0.83024</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.321</v>
+        <v>0.3213</v>
       </c>
       <c r="G65" t="n">
-        <v>0.409473684210526</v>
+        <v>0.409470175438596</v>
       </c>
       <c r="H65" t="n">
         <v>1.565</v>
@@ -5668,7 +5668,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0915</v>
+        <v>0.0912</v>
       </c>
       <c r="M65" t="n">
         <v>0.83024</v>
@@ -6629,7 +6629,7 @@
         <v>0.00406</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008553210014736501</v>
+        <v>0.0085568045441843</v>
       </c>
       <c r="H77" t="n">
         <v>0.0928949575050536</v>
@@ -6710,7 +6710,7 @@
         <v>0.00406</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008553210014736501</v>
+        <v>0.0085568045441843</v>
       </c>
       <c r="H78" t="n">
         <v>0.0928949575050536</v>
@@ -6791,7 +6791,7 @@
         <v>0.3087</v>
       </c>
       <c r="G79" t="n">
-        <v>0.382105324100742</v>
+        <v>0.382123653970011</v>
       </c>
       <c r="H79" t="n">
         <v>1.51</v>
@@ -6872,7 +6872,7 @@
         <v>0.3087</v>
       </c>
       <c r="G80" t="n">
-        <v>0.382105324100742</v>
+        <v>0.382123653970011</v>
       </c>
       <c r="H80" t="n">
         <v>1.51</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.321</v>
+        <v>0.3213</v>
       </c>
       <c r="G81" t="n">
-        <v>0.397841011119469</v>
+        <v>0.397904894526641</v>
       </c>
       <c r="H81" t="n">
         <v>1.565</v>
@@ -6960,10 +6960,10 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.067</v>
+        <v>0.06705</v>
       </c>
       <c r="M81" t="n">
-        <v>0.74613</v>
+        <v>0.74634</v>
       </c>
       <c r="N81" t="n">
         <v>0.8973</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.321</v>
+        <v>0.3213</v>
       </c>
       <c r="G82" t="n">
-        <v>0.397841011119469</v>
+        <v>0.397904894526641</v>
       </c>
       <c r="H82" t="n">
         <v>1.565</v>
@@ -7037,10 +7037,10 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.067</v>
+        <v>0.06705</v>
       </c>
       <c r="M82" t="n">
-        <v>0.74613</v>
+        <v>0.74634</v>
       </c>
       <c r="N82" t="n">
         <v>0.8973</v>
@@ -7573,7 +7573,7 @@
         <v>0.013</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0130964135856901</v>
+        <v>0.0130963315746128</v>
       </c>
       <c r="H89" t="n">
         <v>0.031</v>
@@ -7654,7 +7654,7 @@
         <v>0.013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0130964135856901</v>
+        <v>0.0130963315746128</v>
       </c>
       <c r="H90" t="n">
         <v>0.031</v>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.00176</v>
+        <v>0.00183</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0054601845495817</v>
+        <v>0.0054734062115738</v>
       </c>
       <c r="H96" t="n">
         <v>0.0606884636710391</v>
@@ -8163,7 +8163,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00134</v>
+        <v>0.0014</v>
       </c>
       <c r="M96" t="n">
         <v>0.009719999999999999</v>
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00176</v>
+        <v>0.00183</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0054601845495817</v>
+        <v>0.0054734062115738</v>
       </c>
       <c r="H97" t="n">
         <v>0.0606884636710391</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00134</v>
+        <v>0.0014</v>
       </c>
       <c r="M97" t="n">
         <v>0.009719999999999999</v>
@@ -8314,7 +8314,7 @@
         <v>0.28695</v>
       </c>
       <c r="G98" t="n">
-        <v>0.380618529544227</v>
+        <v>0.38064900319204</v>
       </c>
       <c r="H98" t="n">
         <v>1.47</v>
@@ -8395,7 +8395,7 @@
         <v>0.28695</v>
       </c>
       <c r="G99" t="n">
-        <v>0.380618529544227</v>
+        <v>0.38064900319204</v>
       </c>
       <c r="H99" t="n">
         <v>1.47</v>
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.296</v>
+        <v>0.2964</v>
       </c>
       <c r="G101" t="n">
-        <v>0.392169239263083</v>
+        <v>0.392251294358977</v>
       </c>
       <c r="H101" t="n">
         <v>1.48</v>
@@ -8563,7 +8563,7 @@
         <v>0.06</v>
       </c>
       <c r="M101" t="n">
-        <v>0.7444</v>
+        <v>0.74468</v>
       </c>
       <c r="N101" t="n">
         <v>1.0625</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.296</v>
+        <v>0.2964</v>
       </c>
       <c r="G102" t="n">
-        <v>0.392169239263083</v>
+        <v>0.392251294358977</v>
       </c>
       <c r="H102" t="n">
         <v>1.48</v>
@@ -8640,7 +8640,7 @@
         <v>0.06</v>
       </c>
       <c r="M102" t="n">
-        <v>0.7444</v>
+        <v>0.74468</v>
       </c>
       <c r="N102" t="n">
         <v>1.0625</v>
@@ -9173,7 +9173,7 @@
         <v>0.013</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0138464135856901</v>
+        <v>0.0138463315746128</v>
       </c>
       <c r="H109" t="n">
         <v>0.031</v>
@@ -9254,7 +9254,7 @@
         <v>0.013</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0138464135856901</v>
+        <v>0.0138463315746128</v>
       </c>
       <c r="H110" t="n">
         <v>0.031</v>
@@ -9752,7 +9752,7 @@
         <v>0.00164</v>
       </c>
       <c r="G116" t="n">
-        <v>0.002813009786607</v>
+        <v>0.0028434041820248</v>
       </c>
       <c r="H116" t="n">
         <v>0.0144630930956154</v>
@@ -9763,7 +9763,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00134</v>
+        <v>0.0014</v>
       </c>
       <c r="M116" t="n">
         <v>0.00513</v>
@@ -9833,7 +9833,7 @@
         <v>0.00164</v>
       </c>
       <c r="G117" t="n">
-        <v>0.002813009786607</v>
+        <v>0.0028434041820248</v>
       </c>
       <c r="H117" t="n">
         <v>0.0144630930956154</v>
@@ -9844,7 +9844,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00134</v>
+        <v>0.0014</v>
       </c>
       <c r="M117" t="n">
         <v>0.00513</v>
@@ -9914,7 +9914,7 @@
         <v>0.2476</v>
       </c>
       <c r="G118" t="n">
-        <v>0.392835196210894</v>
+        <v>0.392865669858706</v>
       </c>
       <c r="H118" t="n">
         <v>1.47</v>
@@ -9995,7 +9995,7 @@
         <v>0.2476</v>
       </c>
       <c r="G119" t="n">
-        <v>0.392835196210894</v>
+        <v>0.392865669858706</v>
       </c>
       <c r="H119" t="n">
         <v>1.47</v>
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.256</v>
+        <v>0.25625</v>
       </c>
       <c r="G121" t="n">
-        <v>0.402802572596416</v>
+        <v>0.40288462769231</v>
       </c>
       <c r="H121" t="n">
         <v>1.48</v>
@@ -10163,7 +10163,7 @@
         <v>0.06</v>
       </c>
       <c r="M121" t="n">
-        <v>0.8636</v>
+        <v>0.86346</v>
       </c>
       <c r="N121" t="n">
         <v>1.1825</v>
@@ -10223,10 +10223,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.256</v>
+        <v>0.25625</v>
       </c>
       <c r="G122" t="n">
-        <v>0.402802572596416</v>
+        <v>0.40288462769231</v>
       </c>
       <c r="H122" t="n">
         <v>1.48</v>
@@ -10240,7 +10240,7 @@
         <v>0.06</v>
       </c>
       <c r="M122" t="n">
-        <v>0.8636</v>
+        <v>0.86346</v>
       </c>
       <c r="N122" t="n">
         <v>1.1825</v>
@@ -10773,7 +10773,7 @@
         <v>0.013</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0141964135856901</v>
+        <v>0.0141963315746128</v>
       </c>
       <c r="H129" t="n">
         <v>0.031</v>
@@ -10854,7 +10854,7 @@
         <v>0.013</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0141964135856901</v>
+        <v>0.0141963315746128</v>
       </c>
       <c r="H130" t="n">
         <v>0.031</v>
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.00174</v>
+        <v>0.00182</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0028483105268534</v>
+        <v>0.0028929937329272</v>
       </c>
       <c r="H136" t="n">
         <v>0.0139325269988399</v>
@@ -11363,7 +11363,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00145</v>
+        <v>0.00151</v>
       </c>
       <c r="M136" t="n">
         <v>0.00509</v>
@@ -11430,10 +11430,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.00174</v>
+        <v>0.00182</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0028483105268534</v>
+        <v>0.0028929937329272</v>
       </c>
       <c r="H137" t="n">
         <v>0.0139325269988399</v>
@@ -11444,7 +11444,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00145</v>
+        <v>0.00151</v>
       </c>
       <c r="M137" t="n">
         <v>0.00509</v>
@@ -11514,7 +11514,7 @@
         <v>0.31465</v>
       </c>
       <c r="G138" t="n">
-        <v>0.415200196210894</v>
+        <v>0.415230669858706</v>
       </c>
       <c r="H138" t="n">
         <v>1.47</v>
@@ -11595,7 +11595,7 @@
         <v>0.31465</v>
       </c>
       <c r="G139" t="n">
-        <v>0.415200196210894</v>
+        <v>0.415230669858706</v>
       </c>
       <c r="H139" t="n">
         <v>1.47</v>
@@ -11749,7 +11749,7 @@
         <v>0.328</v>
       </c>
       <c r="G141" t="n">
-        <v>0.425452572596417</v>
+        <v>0.425512961025644</v>
       </c>
       <c r="H141" t="n">
         <v>1.48</v>
@@ -11760,10 +11760,10 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.065</v>
+        <v>0.06505</v>
       </c>
       <c r="M141" t="n">
-        <v>0.8329</v>
+        <v>0.83284</v>
       </c>
       <c r="N141" t="n">
         <v>1.0685</v>
@@ -11826,7 +11826,7 @@
         <v>0.328</v>
       </c>
       <c r="G142" t="n">
-        <v>0.425452572596417</v>
+        <v>0.425512961025644</v>
       </c>
       <c r="H142" t="n">
         <v>1.48</v>
@@ -11837,10 +11837,10 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.065</v>
+        <v>0.06505</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8329</v>
+        <v>0.83284</v>
       </c>
       <c r="N142" t="n">
         <v>1.0685</v>
@@ -12292,13 +12292,13 @@
         <v>1.63</v>
       </c>
       <c r="G148" t="n">
-        <v>1.82529579199834</v>
+        <v>1.94505086203975</v>
       </c>
       <c r="H148" t="n">
-        <v>6.20976236390815</v>
+        <v>8.914361173347849</v>
       </c>
       <c r="I148" t="n">
-        <v>4.79413</v>
+        <v>6.06015</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -12309,7 +12309,7 @@
         <v>2.7725</v>
       </c>
       <c r="N148" t="n">
-        <v>4.06841</v>
+        <v>4.01973</v>
       </c>
       <c r="O148" t="n">
         <v>1854499</v>
@@ -12373,7 +12373,7 @@
         <v>0.013</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0139797469190234</v>
+        <v>0.0139796649079461</v>
       </c>
       <c r="H149" t="n">
         <v>0.028</v>
@@ -12454,7 +12454,7 @@
         <v>0.013</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0139797469190234</v>
+        <v>0.0139796649079461</v>
       </c>
       <c r="H150" t="n">
         <v>0.028</v>
@@ -12949,13 +12949,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.0024</v>
+        <v>0.00252</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0043828422571048</v>
+        <v>0.0045017373093493</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0301038070934255</v>
+        <v>0.0316871727773122</v>
       </c>
       <c r="I156" t="n">
         <v>0.01361</v>
@@ -12963,10 +12963,10 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00234</v>
+        <v>0.00245</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0062</v>
+        <v>0.00635</v>
       </c>
       <c r="N156" t="n">
         <v>0.0105</v>
@@ -13030,13 +13030,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.0024</v>
+        <v>0.00252</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0043828422571048</v>
+        <v>0.0045017373093493</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0301038070934255</v>
+        <v>0.0316871727773122</v>
       </c>
       <c r="I157" t="n">
         <v>0.01361</v>
@@ -13044,10 +13044,10 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00234</v>
+        <v>0.00245</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0062</v>
+        <v>0.00635</v>
       </c>
       <c r="N157" t="n">
         <v>0.0105</v>
@@ -13114,7 +13114,7 @@
         <v>0.296</v>
       </c>
       <c r="G158" t="n">
-        <v>0.416868249822023</v>
+        <v>0.416912870773541</v>
       </c>
       <c r="H158" t="n">
         <v>1.47</v>
@@ -13195,7 +13195,7 @@
         <v>0.296</v>
       </c>
       <c r="G159" t="n">
-        <v>0.416868249822023</v>
+        <v>0.416912870773541</v>
       </c>
       <c r="H159" t="n">
         <v>1.47</v>
@@ -13349,7 +13349,7 @@
         <v>0.305</v>
       </c>
       <c r="G161" t="n">
-        <v>0.42822500833282</v>
+        <v>0.428323323182411</v>
       </c>
       <c r="H161" t="n">
         <v>1.48</v>
@@ -13426,7 +13426,7 @@
         <v>0.305</v>
       </c>
       <c r="G162" t="n">
-        <v>0.42822500833282</v>
+        <v>0.428323323182411</v>
       </c>
       <c r="H162" t="n">
         <v>1.48</v>
@@ -13892,13 +13892,13 @@
         <v>1.8</v>
       </c>
       <c r="G168" t="n">
-        <v>2.20063367027196</v>
+        <v>2.38462925301823</v>
       </c>
       <c r="H168" t="n">
-        <v>7.9489679353441</v>
+        <v>11.6448368815637</v>
       </c>
       <c r="I168" t="n">
-        <v>6.31651</v>
+        <v>7.96162</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -13909,7 +13909,7 @@
         <v>3.575</v>
       </c>
       <c r="N168" t="n">
-        <v>5.58141</v>
+        <v>6.78862</v>
       </c>
       <c r="O168" t="n">
         <v>1854499</v>
@@ -13973,7 +13973,7 @@
         <v>0.014</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0152844883922272</v>
+        <v>0.0152844049911317</v>
       </c>
       <c r="H169" t="n">
         <v>0.029</v>
@@ -14054,7 +14054,7 @@
         <v>0.014</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0152844883922272</v>
+        <v>0.0152844049911317</v>
       </c>
       <c r="H170" t="n">
         <v>0.029</v>
@@ -14135,10 +14135,10 @@
         <v>380</v>
       </c>
       <c r="G171" t="n">
-        <v>1330.83935151256</v>
+        <v>1305.93953756906</v>
       </c>
       <c r="H171" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I171" t="n">
         <v>6900</v>
@@ -14220,10 +14220,10 @@
         <v>380</v>
       </c>
       <c r="G172" t="n">
-        <v>1330.83935151256</v>
+        <v>1305.93953756906</v>
       </c>
       <c r="H172" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I172" t="n">
         <v>6900</v>
@@ -14305,10 +14305,10 @@
         <v>380</v>
       </c>
       <c r="G173" t="n">
-        <v>1330.83935151256</v>
+        <v>1305.93953756906</v>
       </c>
       <c r="H173" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I173" t="n">
         <v>6900</v>
@@ -14390,10 +14390,10 @@
         <v>380</v>
       </c>
       <c r="G174" t="n">
-        <v>1330.83935151256</v>
+        <v>1305.93953756906</v>
       </c>
       <c r="H174" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I174" t="n">
         <v>6900</v>
@@ -14549,21 +14549,21 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.00303</v>
+        <v>0.00319</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0065373471753039</v>
+        <v>0.0066601624478368</v>
       </c>
       <c r="H176" t="n">
         <v>0.055</v>
       </c>
       <c r="I176" t="n">
-        <v>0.02942</v>
+        <v>0.0295</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.00278</v>
+        <v>0.00292</v>
       </c>
       <c r="M176" t="n">
         <v>0.01009</v>
@@ -14630,21 +14630,21 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.00303</v>
+        <v>0.00319</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0065373471753039</v>
+        <v>0.0066601624478368</v>
       </c>
       <c r="H177" t="n">
         <v>0.055</v>
       </c>
       <c r="I177" t="n">
-        <v>0.02942</v>
+        <v>0.0295</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>0.00278</v>
+        <v>0.00292</v>
       </c>
       <c r="M177" t="n">
         <v>0.01009</v>
@@ -14714,7 +14714,7 @@
         <v>0.316</v>
       </c>
       <c r="G178" t="n">
-        <v>0.436294590972502</v>
+        <v>0.436321638342064</v>
       </c>
       <c r="H178" t="n">
         <v>1.47</v>
@@ -14795,7 +14795,7 @@
         <v>0.316</v>
       </c>
       <c r="G179" t="n">
-        <v>0.436294590972502</v>
+        <v>0.436321638342064</v>
       </c>
       <c r="H179" t="n">
         <v>1.47</v>
@@ -14949,7 +14949,7 @@
         <v>0.34</v>
       </c>
       <c r="G181" t="n">
-        <v>0.450675946507127</v>
+        <v>0.450725603624963</v>
       </c>
       <c r="H181" t="n">
         <v>1.48</v>
@@ -15026,7 +15026,7 @@
         <v>0.34</v>
       </c>
       <c r="G182" t="n">
-        <v>0.450675946507127</v>
+        <v>0.450725603624963</v>
       </c>
       <c r="H182" t="n">
         <v>1.48</v>
@@ -15492,13 +15492,13 @@
         <v>2.2</v>
       </c>
       <c r="G188" t="n">
-        <v>2.91613305141694</v>
+        <v>2.96319880928363</v>
       </c>
       <c r="H188" t="n">
-        <v>7.9489679353441</v>
+        <v>11.6448368815637</v>
       </c>
       <c r="I188" t="n">
-        <v>7.11364</v>
+        <v>7.94794</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15506,10 +15506,10 @@
         <v>2.9</v>
       </c>
       <c r="M188" t="n">
-        <v>5.50737</v>
+        <v>5.04416</v>
       </c>
       <c r="N188" t="n">
-        <v>6.58982</v>
+        <v>6.70259</v>
       </c>
       <c r="O188" t="n">
         <v>1854499</v>
@@ -15735,10 +15735,10 @@
         <v>370</v>
       </c>
       <c r="G191" t="n">
-        <v>1210.7376565973</v>
+        <v>1185.8378426538</v>
       </c>
       <c r="H191" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I191" t="n">
         <v>6900</v>
@@ -15820,10 +15820,10 @@
         <v>370</v>
       </c>
       <c r="G192" t="n">
-        <v>1210.7376565973</v>
+        <v>1185.8378426538</v>
       </c>
       <c r="H192" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I192" t="n">
         <v>6900</v>
@@ -15905,10 +15905,10 @@
         <v>370</v>
       </c>
       <c r="G193" t="n">
-        <v>1210.7376565973</v>
+        <v>1185.8378426538</v>
       </c>
       <c r="H193" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I193" t="n">
         <v>6900</v>
@@ -15990,10 +15990,10 @@
         <v>370</v>
       </c>
       <c r="G194" t="n">
-        <v>1210.7376565973</v>
+        <v>1185.8378426538</v>
       </c>
       <c r="H194" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I194" t="n">
         <v>6900</v>
@@ -16149,21 +16149,21 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00399</v>
+        <v>0.00416</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0071079595315307</v>
+        <v>0.0072185209951689</v>
       </c>
       <c r="H196" t="n">
         <v>0.055</v>
       </c>
       <c r="I196" t="n">
-        <v>0.03024</v>
+        <v>0.03174</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>0.00331</v>
+        <v>0.00338</v>
       </c>
       <c r="M196" t="n">
         <v>0.008630000000000001</v>
@@ -16230,21 +16230,21 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.00399</v>
+        <v>0.00416</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0071079595315307</v>
+        <v>0.0072185209951689</v>
       </c>
       <c r="H197" t="n">
         <v>0.055</v>
       </c>
       <c r="I197" t="n">
-        <v>0.03024</v>
+        <v>0.03174</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>0.00331</v>
+        <v>0.00338</v>
       </c>
       <c r="M197" t="n">
         <v>0.008630000000000001</v>
@@ -16314,7 +16314,7 @@
         <v>0.276</v>
       </c>
       <c r="G198" t="n">
-        <v>0.388923444350301</v>
+        <v>0.388937831438815</v>
       </c>
       <c r="H198" t="n">
         <v>1.25</v>
@@ -16395,7 +16395,7 @@
         <v>0.276</v>
       </c>
       <c r="G199" t="n">
-        <v>0.388923444350301</v>
+        <v>0.388937831438815</v>
       </c>
       <c r="H199" t="n">
         <v>1.25</v>
@@ -16549,7 +16549,7 @@
         <v>0.325</v>
       </c>
       <c r="G201" t="n">
-        <v>0.402514341426851</v>
+        <v>0.402552910667899</v>
       </c>
       <c r="H201" t="n">
         <v>1.271</v>
@@ -16626,7 +16626,7 @@
         <v>0.325</v>
       </c>
       <c r="G202" t="n">
-        <v>0.402514341426851</v>
+        <v>0.402552910667899</v>
       </c>
       <c r="H202" t="n">
         <v>1.271</v>
@@ -17092,13 +17092,13 @@
         <v>2.775</v>
       </c>
       <c r="G208" t="n">
-        <v>3.19001124909158</v>
+        <v>3.27042492374046</v>
       </c>
       <c r="H208" t="n">
-        <v>7.9489679353441</v>
+        <v>11.6448368815637</v>
       </c>
       <c r="I208" t="n">
-        <v>7.12181</v>
+        <v>7.9753</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17106,10 +17106,10 @@
         <v>3.5</v>
       </c>
       <c r="M208" t="n">
-        <v>5.85786</v>
+        <v>5.25876</v>
       </c>
       <c r="N208" t="n">
-        <v>6.66601</v>
+        <v>6.92161</v>
       </c>
       <c r="O208" t="n">
         <v>1854499</v>
@@ -17335,10 +17335,10 @@
         <v>375</v>
       </c>
       <c r="G211" t="n">
-        <v>1304.4227886076</v>
+        <v>1279.09366752714</v>
       </c>
       <c r="H211" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I211" t="n">
         <v>6900</v>
@@ -17420,10 +17420,10 @@
         <v>375</v>
       </c>
       <c r="G212" t="n">
-        <v>1304.4227886076</v>
+        <v>1279.09366752714</v>
       </c>
       <c r="H212" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I212" t="n">
         <v>6900</v>
@@ -17505,10 +17505,10 @@
         <v>375</v>
       </c>
       <c r="G213" t="n">
-        <v>1304.4227886076</v>
+        <v>1279.09366752714</v>
       </c>
       <c r="H213" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I213" t="n">
         <v>6900</v>
@@ -17590,10 +17590,10 @@
         <v>375</v>
       </c>
       <c r="G214" t="n">
-        <v>1304.4227886076</v>
+        <v>1279.09366752714</v>
       </c>
       <c r="H214" t="n">
-        <v>10308.5217392408</v>
+        <v>9700</v>
       </c>
       <c r="I214" t="n">
         <v>6900</v>
@@ -17749,10 +17749,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00504</v>
+        <v>0.00505</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0095616018452693</v>
+        <v>0.009653358521231</v>
       </c>
       <c r="H216" t="n">
         <v>0.055</v>
@@ -17763,13 +17763,13 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.00461</v>
+        <v>0.00486</v>
       </c>
       <c r="M216" t="n">
         <v>0.01418</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02998</v>
+        <v>0.03103</v>
       </c>
       <c r="O216" t="n">
         <v>1854499</v>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00504</v>
+        <v>0.00505</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0095616018452693</v>
+        <v>0.009653358521231</v>
       </c>
       <c r="H217" t="n">
         <v>0.055</v>
@@ -17844,13 +17844,13 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.00461</v>
+        <v>0.00486</v>
       </c>
       <c r="M217" t="n">
         <v>0.01418</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02998</v>
+        <v>0.03103</v>
       </c>
       <c r="O217" t="n">
         <v>1854499</v>
@@ -17914,7 +17914,7 @@
         <v>0.2535</v>
       </c>
       <c r="G218" t="n">
-        <v>0.379042814080479</v>
+        <v>0.379057449222243</v>
       </c>
       <c r="H218" t="n">
         <v>1.25</v>
@@ -17995,7 +17995,7 @@
         <v>0.2535</v>
       </c>
       <c r="G219" t="n">
-        <v>0.379042814080479</v>
+        <v>0.379057449222243</v>
       </c>
       <c r="H219" t="n">
         <v>1.25</v>
@@ -18149,7 +18149,7 @@
         <v>0.2715</v>
       </c>
       <c r="G221" t="n">
-        <v>0.395574933520417</v>
+        <v>0.39561416774838</v>
       </c>
       <c r="H221" t="n">
         <v>1.294</v>
@@ -18226,7 +18226,7 @@
         <v>0.2715</v>
       </c>
       <c r="G222" t="n">
-        <v>0.395574933520417</v>
+        <v>0.39561416774838</v>
       </c>
       <c r="H222" t="n">
         <v>1.294</v>
@@ -18585,6 +18585,1606 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.43705</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>3</v>
+      </c>
+      <c r="G228" t="n">
+        <v>3.50282863578692</v>
+      </c>
+      <c r="H228" t="n">
+        <v>11.6448368815637</v>
+      </c>
+      <c r="I228" t="n">
+        <v>8.162660000000001</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>4.09867</v>
+      </c>
+      <c r="M228" t="n">
+        <v>5.69776</v>
+      </c>
+      <c r="N228" t="n">
+        <v>7.49174</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0159137931034483</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0159137931034483</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>320</v>
+      </c>
+      <c r="G231" t="n">
+        <v>994.921253734041</v>
+      </c>
+      <c r="H231" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I231" t="n">
+        <v>6219.6</v>
+      </c>
+      <c r="J231" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="K231" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L231" t="n">
+        <v>420</v>
+      </c>
+      <c r="M231" t="n">
+        <v>810</v>
+      </c>
+      <c r="N231" t="n">
+        <v>4158</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>320</v>
+      </c>
+      <c r="G232" t="n">
+        <v>994.921253734041</v>
+      </c>
+      <c r="H232" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I232" t="n">
+        <v>6219.6</v>
+      </c>
+      <c r="J232" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="K232" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L232" t="n">
+        <v>420</v>
+      </c>
+      <c r="M232" t="n">
+        <v>810</v>
+      </c>
+      <c r="N232" t="n">
+        <v>4158</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>320</v>
+      </c>
+      <c r="G233" t="n">
+        <v>994.921253734041</v>
+      </c>
+      <c r="H233" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I233" t="n">
+        <v>6219.6</v>
+      </c>
+      <c r="J233" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="K233" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L233" t="n">
+        <v>420</v>
+      </c>
+      <c r="M233" t="n">
+        <v>810</v>
+      </c>
+      <c r="N233" t="n">
+        <v>4158</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>320</v>
+      </c>
+      <c r="G234" t="n">
+        <v>994.921253734041</v>
+      </c>
+      <c r="H234" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I234" t="n">
+        <v>6219.6</v>
+      </c>
+      <c r="J234" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="K234" t="n">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L234" t="n">
+        <v>420</v>
+      </c>
+      <c r="M234" t="n">
+        <v>810</v>
+      </c>
+      <c r="N234" t="n">
+        <v>4158</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>120</v>
+      </c>
+      <c r="G235" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="H235" t="n">
+        <v>135</v>
+      </c>
+      <c r="I235" t="n">
+        <v>135</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>120</v>
+      </c>
+      <c r="M235" t="n">
+        <v>131.6155</v>
+      </c>
+      <c r="N235" t="n">
+        <v>135</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.00502</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.0090240338746132</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.03258</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.01425</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.03025</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.00502</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.0090240338746132</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.03258</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.01425</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.03025</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.2815</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.41888503542914</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.81968</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1.0786</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.2815</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.41888503542914</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.81968</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1.0786</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5.8778</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6.253</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6.253</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M240" t="n">
+        <v>6.19245</v>
+      </c>
+      <c r="N240" t="n">
+        <v>6.253</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.435088305679414</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.2848</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1.14534</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.435088305679414</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.2848</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1.14534</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.631206896551724</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1.0764</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1.563</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.631206896551724</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.0764</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1.563</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0474310344827586</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.1748</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.08817999999999999</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.0474310344827586</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.1748</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.08817999999999999</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
+++ b/state_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
@@ -570,13 +570,13 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48755938970283</v>
+        <v>2.65953116407981</v>
       </c>
       <c r="H2" t="n">
-        <v>8.18904478826977</v>
+        <v>9.63898215148199</v>
       </c>
       <c r="I2" t="n">
-        <v>7.67</v>
+        <v>8.709580000000001</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>4.38926</v>
+        <v>4.44</v>
       </c>
       <c r="N2" t="n">
-        <v>6.70213</v>
+        <v>7.77396</v>
       </c>
       <c r="O2" t="n">
         <v>1854499</v>
@@ -1939,13 +1939,13 @@
         <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.93057215815533</v>
+        <v>2.05022428293266</v>
       </c>
       <c r="H19" t="n">
-        <v>6.59458793093603</v>
+        <v>8.709576946184139</v>
       </c>
       <c r="I19" t="n">
-        <v>5.47449</v>
+        <v>6.98901</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
         <v>2.9</v>
       </c>
       <c r="N19" t="n">
-        <v>3.63946</v>
+        <v>3.67135</v>
       </c>
       <c r="O19" t="n">
         <v>1854499</v>
@@ -3308,13 +3308,13 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.22087760239105</v>
+        <v>2.30713843653285</v>
       </c>
       <c r="H36" t="n">
-        <v>6.59458793093603</v>
+        <v>8.709576946184139</v>
       </c>
       <c r="I36" t="n">
-        <v>5.66305</v>
+        <v>6.29808</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>3.657</v>
       </c>
       <c r="N36" t="n">
-        <v>4.94039</v>
+        <v>4.9558</v>
       </c>
       <c r="O36" t="n">
         <v>1854499</v>
@@ -4677,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>2.29168724813106</v>
+        <v>2.36301832251755</v>
       </c>
       <c r="H53" t="n">
-        <v>7.14</v>
+        <v>8.709576946184139</v>
       </c>
       <c r="I53" t="n">
-        <v>5.80431</v>
+        <v>7.009</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>3.666</v>
       </c>
       <c r="N53" t="n">
-        <v>5.12887</v>
+        <v>5.2162</v>
       </c>
       <c r="O53" t="n">
         <v>1854499</v>
@@ -12292,13 +12292,13 @@
         <v>1.63</v>
       </c>
       <c r="G148" t="n">
-        <v>1.94505086203975</v>
+        <v>1.83870630380551</v>
       </c>
       <c r="H148" t="n">
-        <v>8.914361173347849</v>
+        <v>6.84217642073616</v>
       </c>
       <c r="I148" t="n">
-        <v>6.06015</v>
+        <v>5.07038</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -12309,7 +12309,7 @@
         <v>2.7725</v>
       </c>
       <c r="N148" t="n">
-        <v>4.01973</v>
+        <v>4.04635</v>
       </c>
       <c r="O148" t="n">
         <v>1854499</v>
@@ -13892,13 +13892,13 @@
         <v>1.8</v>
       </c>
       <c r="G168" t="n">
-        <v>2.38462925301823</v>
+        <v>2.13678638799702</v>
       </c>
       <c r="H168" t="n">
-        <v>11.6448368815637</v>
+        <v>6.84217642073616</v>
       </c>
       <c r="I168" t="n">
-        <v>7.96162</v>
+        <v>5.42095</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -13909,7 +13909,7 @@
         <v>3.575</v>
       </c>
       <c r="N168" t="n">
-        <v>6.78862</v>
+        <v>5.28496</v>
       </c>
       <c r="O168" t="n">
         <v>1854499</v>
@@ -14135,10 +14135,10 @@
         <v>380</v>
       </c>
       <c r="G171" t="n">
-        <v>1305.93953756906</v>
+        <v>1373.61599709941</v>
       </c>
       <c r="H171" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I171" t="n">
         <v>6900</v>
@@ -14220,10 +14220,10 @@
         <v>380</v>
       </c>
       <c r="G172" t="n">
-        <v>1305.93953756906</v>
+        <v>1373.61599709941</v>
       </c>
       <c r="H172" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I172" t="n">
         <v>6900</v>
@@ -14305,10 +14305,10 @@
         <v>380</v>
       </c>
       <c r="G173" t="n">
-        <v>1305.93953756906</v>
+        <v>1373.61599709941</v>
       </c>
       <c r="H173" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I173" t="n">
         <v>6900</v>
@@ -14390,10 +14390,10 @@
         <v>380</v>
       </c>
       <c r="G174" t="n">
-        <v>1305.93953756906</v>
+        <v>1373.61599709941</v>
       </c>
       <c r="H174" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I174" t="n">
         <v>6900</v>
@@ -15492,13 +15492,13 @@
         <v>2.2</v>
       </c>
       <c r="G188" t="n">
-        <v>2.96319880928363</v>
+        <v>3.09963142667808</v>
       </c>
       <c r="H188" t="n">
-        <v>11.6448368815637</v>
+        <v>11.438571735207</v>
       </c>
       <c r="I188" t="n">
-        <v>7.94794</v>
+        <v>8.582380000000001</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15506,10 +15506,10 @@
         <v>2.9</v>
       </c>
       <c r="M188" t="n">
-        <v>5.04416</v>
+        <v>5.65604</v>
       </c>
       <c r="N188" t="n">
-        <v>6.70259</v>
+        <v>6.85585</v>
       </c>
       <c r="O188" t="n">
         <v>1854499</v>
@@ -15735,10 +15735,10 @@
         <v>370</v>
       </c>
       <c r="G191" t="n">
-        <v>1185.8378426538</v>
+        <v>1253.51430218416</v>
       </c>
       <c r="H191" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I191" t="n">
         <v>6900</v>
@@ -15820,10 +15820,10 @@
         <v>370</v>
       </c>
       <c r="G192" t="n">
-        <v>1185.8378426538</v>
+        <v>1253.51430218416</v>
       </c>
       <c r="H192" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I192" t="n">
         <v>6900</v>
@@ -15905,10 +15905,10 @@
         <v>370</v>
       </c>
       <c r="G193" t="n">
-        <v>1185.8378426538</v>
+        <v>1253.51430218416</v>
       </c>
       <c r="H193" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I193" t="n">
         <v>6900</v>
@@ -15990,10 +15990,10 @@
         <v>370</v>
       </c>
       <c r="G194" t="n">
-        <v>1185.8378426538</v>
+        <v>1253.51430218416</v>
       </c>
       <c r="H194" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I194" t="n">
         <v>6900</v>
@@ -17092,13 +17092,13 @@
         <v>2.775</v>
       </c>
       <c r="G208" t="n">
-        <v>3.27042492374046</v>
+        <v>3.40060604641105</v>
       </c>
       <c r="H208" t="n">
-        <v>11.6448368815637</v>
+        <v>11.438571735207</v>
       </c>
       <c r="I208" t="n">
-        <v>7.9753</v>
+        <v>8.733280000000001</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17106,10 +17106,10 @@
         <v>3.5</v>
       </c>
       <c r="M208" t="n">
-        <v>5.25876</v>
+        <v>6.1532</v>
       </c>
       <c r="N208" t="n">
-        <v>6.92161</v>
+        <v>6.96528</v>
       </c>
       <c r="O208" t="n">
         <v>1854499</v>
@@ -17335,10 +17335,10 @@
         <v>375</v>
       </c>
       <c r="G211" t="n">
-        <v>1279.09366752714</v>
+        <v>1347.93696256664</v>
       </c>
       <c r="H211" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I211" t="n">
         <v>6900</v>
@@ -17420,10 +17420,10 @@
         <v>375</v>
       </c>
       <c r="G212" t="n">
-        <v>1279.09366752714</v>
+        <v>1347.93696256664</v>
       </c>
       <c r="H212" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I212" t="n">
         <v>6900</v>
@@ -17505,10 +17505,10 @@
         <v>375</v>
       </c>
       <c r="G213" t="n">
-        <v>1279.09366752714</v>
+        <v>1347.93696256664</v>
       </c>
       <c r="H213" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I213" t="n">
         <v>6900</v>
@@ -17590,10 +17590,10 @@
         <v>375</v>
       </c>
       <c r="G214" t="n">
-        <v>1279.09366752714</v>
+        <v>1347.93696256664</v>
       </c>
       <c r="H214" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I214" t="n">
         <v>6900</v>
@@ -18692,24 +18692,24 @@
         <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>3.50282863578692</v>
+        <v>3.65239843630206</v>
       </c>
       <c r="H228" t="n">
-        <v>11.6448368815637</v>
+        <v>11.438571735207</v>
       </c>
       <c r="I228" t="n">
-        <v>8.162660000000001</v>
+        <v>9.18451</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>4.09867</v>
+        <v>4.15</v>
       </c>
       <c r="M228" t="n">
-        <v>5.69776</v>
+        <v>6.26802</v>
       </c>
       <c r="N228" t="n">
-        <v>7.49174</v>
+        <v>7.34827</v>
       </c>
       <c r="O228" t="n">
         <v>1854499</v>
@@ -18935,10 +18935,10 @@
         <v>320</v>
       </c>
       <c r="G231" t="n">
-        <v>994.921253734041</v>
+        <v>1063.76454877354</v>
       </c>
       <c r="H231" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I231" t="n">
         <v>6219.6</v>
@@ -19020,10 +19020,10 @@
         <v>320</v>
       </c>
       <c r="G232" t="n">
-        <v>994.921253734041</v>
+        <v>1063.76454877354</v>
       </c>
       <c r="H232" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I232" t="n">
         <v>6219.6</v>
@@ -19105,10 +19105,10 @@
         <v>320</v>
       </c>
       <c r="G233" t="n">
-        <v>994.921253734041</v>
+        <v>1063.76454877354</v>
       </c>
       <c r="H233" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I233" t="n">
         <v>6219.6</v>
@@ -19190,10 +19190,10 @@
         <v>320</v>
       </c>
       <c r="G234" t="n">
-        <v>994.921253734041</v>
+        <v>1063.76454877354</v>
       </c>
       <c r="H234" t="n">
-        <v>9700</v>
+        <v>12832.3438288652</v>
       </c>
       <c r="I234" t="n">
         <v>6219.6</v>
